--- a/pc_info/file.xlsx
+++ b/pc_info/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive - University of Nottingham Malaysia Campus\Future University\QR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive - University of Nottingham Malaysia Campus\Future University\QR\pc_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB9578-EFC7-491B-B45D-67C2BA98C6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DE12A9-29AC-4A41-97A5-77E95DCF0410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7810" xr2:uid="{F1D96436-C3AE-40A1-9570-A8B53EAA5337}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566A94C-69F7-4E7C-B583-348A1C259327}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
